--- a/Schemota/Triggers_lect7.xlsx
+++ b/Schemota/Triggers_lect7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
   <si>
     <t>_</t>
   </si>
@@ -178,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -195,31 +195,118 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
     <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -523,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,665 +738,856 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="I15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="I16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="L31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="M31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1" t="s">
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="G33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="F47" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="B50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
